--- a/data/case1/18/Plm2_1.xlsx
+++ b/data/case1/18/Plm2_1.xlsx
@@ -57,263 +57,263 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="14.7109375" customWidth="true"/>
+    <col min="2" max="2" width="16.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.43083306572343361</v>
+        <v>-0.3632265282951721</v>
       </c>
       <c r="B1" s="0">
-        <v>0.42967384397660169</v>
+        <v>0.36242495512692585</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.31929332051988091</v>
+        <v>-0.23833405228415927</v>
       </c>
       <c r="B2" s="0">
-        <v>0.31551051828715515</v>
+        <v>0.23615228160239887</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.21255625004144818</v>
+        <v>-0.13320302085143965</v>
       </c>
       <c r="B3" s="0">
-        <v>0.21130038833298315</v>
+        <v>0.13268541695299874</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.19930038851634002</v>
+        <v>-0.12068541701465918</v>
       </c>
       <c r="B4" s="0">
-        <v>0.19814901018025388</v>
+        <v>0.12024544079369548</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.19214901085049352</v>
+        <v>-0.11424544100713518</v>
       </c>
       <c r="B5" s="0">
-        <v>0.18982129387681912</v>
+        <v>0.11339050250879801</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.095925203837012418</v>
+        <v>-0.039447609305863551</v>
       </c>
       <c r="B6" s="0">
-        <v>0.095782531165750306</v>
+        <v>0.039425321807485147</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.075782531983351831</v>
+        <v>-0.019425322071766615</v>
       </c>
       <c r="B7" s="0">
-        <v>0.075446442441073458</v>
+        <v>0.019406550562090175</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.055446443266520262</v>
+        <v>0.00059344917301284994</v>
       </c>
       <c r="B8" s="0">
-        <v>0.055185687985401799</v>
+        <v>-0.00059459605551115402</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.062393956127468009</v>
+        <v>0.006594595836177497</v>
       </c>
       <c r="B9" s="0">
-        <v>0.062048084578177232</v>
+        <v>-0.0066001889007987202</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.056048085303181949</v>
+        <v>0.012600188681801683</v>
       </c>
       <c r="B10" s="0">
-        <v>0.05600113510628546</v>
+        <v>-0.012600500909989876</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.051501135819524535</v>
+        <v>0.017100500695988785</v>
       </c>
       <c r="B11" s="0">
-        <v>0.051418904854784842</v>
+        <v>-0.017110357414289012</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.045418905583432423</v>
+        <v>0.023110357195469611</v>
       </c>
       <c r="B12" s="0">
-        <v>0.045159657313772694</v>
+        <v>-0.023183255086506538</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.039159658053318225</v>
+        <v>-0.039147876104077106</v>
       </c>
       <c r="B13" s="0">
-        <v>0.039089284689732828</v>
+        <v>0.039083142654182446</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.027089285483740788</v>
+        <v>-0.027083142891765277</v>
       </c>
       <c r="B14" s="0">
-        <v>0.027055555342186288</v>
+        <v>0.02705171589399491</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.021055556087529403</v>
+        <v>-0.021051716112845398</v>
       </c>
       <c r="B15" s="0">
-        <v>0.021029043231635569</v>
+        <v>0.021026962333941412</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.015029043979321921</v>
+        <v>-0.015026962553537526</v>
       </c>
       <c r="B16" s="0">
-        <v>0.015004428426202976</v>
+        <v>0.015004479209294264</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0090044291769606488</v>
+        <v>-0.0090044794298407282</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0089999992230413994</v>
+        <v>0.0089999997694336642</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.036108078317191428</v>
+        <v>-0.036111730316036983</v>
       </c>
       <c r="B18" s="0">
-        <v>0.036096673168191984</v>
+        <v>0.036097206721326103</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.027096673820248718</v>
+        <v>-0.027097206934413531</v>
       </c>
       <c r="B19" s="0">
-        <v>0.027013375530544614</v>
+        <v>0.027014036881643833</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.018013376188315888</v>
+        <v>-0.018014037096673263</v>
       </c>
       <c r="B20" s="0">
-        <v>0.018004296543479015</v>
+        <v>0.018004328295976535</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0090042972021011636</v>
+        <v>-0.0090043285113203808</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0089999993408200751</v>
+        <v>0.0089999997844190105</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.093954268920452222</v>
+        <v>-0.093949260969612425</v>
       </c>
       <c r="B22" s="0">
-        <v>0.093639361982971181</v>
+        <v>0.093635436078372436</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.084639362663497586</v>
+        <v>-0.084635436299084432</v>
       </c>
       <c r="B23" s="0">
-        <v>0.084127693404308701</v>
+        <v>0.084127100331170546</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.042127694376054237</v>
+        <v>-0.042127100662946226</v>
       </c>
       <c r="B24" s="0">
-        <v>0.0419999990231954</v>
+        <v>0.041999999666370691</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.087896090735444687</v>
+        <v>-0.067942893421328421</v>
       </c>
       <c r="B25" s="0">
-        <v>0.087783765926875645</v>
+        <v>0.067865330144218916</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.081783766624184295</v>
+        <v>-0.061865330363175985</v>
       </c>
       <c r="B26" s="0">
-        <v>0.081644649520537627</v>
+        <v>0.061773072114728933</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.074508450114228797</v>
+        <v>-0.055773072334611484</v>
       </c>
       <c r="B27" s="0">
-        <v>0.07404560869503074</v>
+        <v>0.055484609888774461</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.068045609407897167</v>
+        <v>-0.075266026792873753</v>
       </c>
       <c r="B28" s="0">
-        <v>0.067748177548517141</v>
+        <v>0.074533089593895596</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.055748178321220365</v>
+        <v>-0.062533089839826417</v>
       </c>
       <c r="B29" s="0">
-        <v>0.055626281049329762</v>
+        <v>0.062169284815002612</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.035626281894421741</v>
+        <v>-0.042169285088635267</v>
       </c>
       <c r="B30" s="0">
-        <v>0.035427819225487323</v>
+        <v>0.042020275197652612</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.027019127431055168</v>
+        <v>-0.027020275457367404</v>
       </c>
       <c r="B31" s="0">
-        <v>0.027000677404414475</v>
+        <v>0.02700095312320272</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0060006782646482293</v>
+        <v>-0.0060009534028262479</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0059999992672645774</v>
+        <v>0.0059999997690614038</v>
       </c>
     </row>
   </sheetData>
